--- a/data/trans_dic/P19C05-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1039694169675625</v>
+        <v>0.1053340251495625</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08333238546916574</v>
+        <v>0.08667124527155044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0495351775885489</v>
+        <v>0.04762147036500464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06543191236009982</v>
+        <v>0.0629447973131279</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09230839325810571</v>
+        <v>0.09337422007234937</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04909585047044864</v>
+        <v>0.04938621395839665</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06265218314281737</v>
+        <v>0.05853133761613541</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05510568152644182</v>
+        <v>0.05352593612430175</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1089550804786829</v>
+        <v>0.1094930277856455</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07640593080152207</v>
+        <v>0.07652941113289038</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06200881040314855</v>
+        <v>0.0612473317500427</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06416459526749686</v>
+        <v>0.06558217070038268</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1735850813918434</v>
+        <v>0.1767596860392706</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1530992001890443</v>
+        <v>0.1586641047448184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.107780931229539</v>
+        <v>0.1058899275946046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1076807208705313</v>
+        <v>0.1103347144549184</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1740800870099775</v>
+        <v>0.1787872994200543</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1170664160227744</v>
+        <v>0.1202227856320357</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1387521974867652</v>
+        <v>0.133650157614401</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09427264551085712</v>
+        <v>0.09207872040176884</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1628702145435331</v>
+        <v>0.1659698110914502</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1235085249500168</v>
+        <v>0.1261926334781958</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1077910697798446</v>
+        <v>0.1043603174467772</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09281754296211638</v>
+        <v>0.09618475266824138</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06639059740926638</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0694500815092844</v>
+        <v>0.06945008150928443</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1001535183203754</v>
@@ -833,7 +833,7 @@
         <v>0.08465711329582234</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09358511023225247</v>
+        <v>0.09358511023225245</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09366253212504852</v>
+        <v>0.09362600289506991</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1229618722014884</v>
+        <v>0.1251502631488699</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0685703986635634</v>
+        <v>0.07149466126746057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08979105885494686</v>
+        <v>0.09050831350112482</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0495186071993108</v>
+        <v>0.04903010513126216</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05435558081042918</v>
+        <v>0.05577009772095892</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04162205668611057</v>
+        <v>0.04160918386233861</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05202006256545408</v>
+        <v>0.0502313994747373</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07871434191710022</v>
+        <v>0.07727428120035515</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1012635170585165</v>
+        <v>0.09913585480795893</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06470395211306232</v>
+        <v>0.06376895539502624</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07663231501876717</v>
+        <v>0.07608060659907788</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.17001220821523</v>
+        <v>0.1705686300547769</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2085426654969892</v>
+        <v>0.2069001604227551</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1428880622183696</v>
+        <v>0.1450229990413356</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1436995693652482</v>
+        <v>0.1446830831247305</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1062839246741115</v>
+        <v>0.1103609226314696</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.118772390128292</v>
+        <v>0.1204076836221363</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09942883999294351</v>
+        <v>0.09831228913600878</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09531169325262996</v>
+        <v>0.09247398650722506</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.126558126643483</v>
+        <v>0.1239320932974616</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1588317456972136</v>
+        <v>0.154619930961412</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1109682743797609</v>
+        <v>0.1108758634335453</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1130686037550907</v>
+        <v>0.1125019053602846</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09759535501511596</v>
+        <v>0.09282413507453754</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1197928682007692</v>
+        <v>0.124863115686137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1226173403589892</v>
+        <v>0.1176671679193612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09441201284624812</v>
+        <v>0.09405735440765503</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05518190245423148</v>
+        <v>0.05660038510432097</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.176710468578991</v>
+        <v>0.1740938197549514</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09976032603195338</v>
+        <v>0.09701548823214229</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1223373409058881</v>
+        <v>0.120412405957596</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09303164605469876</v>
+        <v>0.09481839823446649</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1499206724212473</v>
+        <v>0.1478424592605546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1289374745412769</v>
+        <v>0.1252060461306714</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1106956844028907</v>
+        <v>0.1088307562234203</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1631775001699815</v>
+        <v>0.159335579129709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1873862669582</v>
+        <v>0.1894507098529793</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1924006368520944</v>
+        <v>0.1913477690497254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1528740282932755</v>
+        <v>0.1521714568229618</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.151666117813185</v>
+        <v>0.1587878290405963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2932896381218988</v>
+        <v>0.2868344499621183</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2346091860537416</v>
+        <v>0.230096718079133</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2108900113814089</v>
+        <v>0.2097760025758538</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1477197111349336</v>
+        <v>0.1481298097744763</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.204693640594524</v>
+        <v>0.2051979539137747</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1931392936846834</v>
+        <v>0.190230505994064</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1597874449269289</v>
+        <v>0.1571826332283559</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1527785976736944</v>
+        <v>0.1548310128249871</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1427296989311746</v>
+        <v>0.1426274530687252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1011095248962807</v>
+        <v>0.102314351747625</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1100482419904572</v>
+        <v>0.1116512374059596</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1120172157037764</v>
+        <v>0.1115136101170504</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1102162188678631</v>
+        <v>0.1081982349789696</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.059515368604687</v>
+        <v>0.05860518132815339</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07869192380056894</v>
+        <v>0.07779243235810179</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1448278395987783</v>
+        <v>0.144225578347048</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1351302872716144</v>
+        <v>0.1345520935504452</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08833454491913018</v>
+        <v>0.08573558194487207</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1017195418914573</v>
+        <v>0.1012198726691224</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.204071141121523</v>
+        <v>0.2071011316336144</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.193365994320897</v>
+        <v>0.1902998181293541</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1442538610594656</v>
+        <v>0.1446805797966139</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1530547235296898</v>
+        <v>0.1524012195968999</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.165800975161131</v>
+        <v>0.1686384696364849</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1637644288061206</v>
+        <v>0.1635773530446814</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1007330195458147</v>
+        <v>0.1025842154942183</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1101923805039377</v>
+        <v>0.1092649869472538</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1823683063669666</v>
+        <v>0.1826941523164556</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1706850546466719</v>
+        <v>0.1710390168970197</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1185705300495285</v>
+        <v>0.1183349560783254</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1272481743345739</v>
+        <v>0.1273970650772908</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1008468447797098</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08008201799767983</v>
+        <v>0.08008201799767986</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1626355600234968</v>
@@ -1229,7 +1229,7 @@
         <v>0.1404452608700826</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1468583104969988</v>
+        <v>0.1468583104969989</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1449447596838465</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0757597398643063</v>
+        <v>0.07402464376334746</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1495882013744177</v>
+        <v>0.1546729412211016</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07441793719575598</v>
+        <v>0.07468312839267026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05860663496114483</v>
+        <v>0.05923985625876497</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1291473182068268</v>
+        <v>0.1293543650540903</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2089164129288442</v>
+        <v>0.2148281830759557</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1105207522956613</v>
+        <v>0.1081465108395901</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1277698428649883</v>
+        <v>0.1289512471183829</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1198544240804206</v>
+        <v>0.118800488416104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1971280208354137</v>
+        <v>0.1978777781020296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1034658290447208</v>
+        <v>0.1040558468672798</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1061658427670602</v>
+        <v>0.1065525716957477</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1609783716222854</v>
+        <v>0.1567742387071048</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2302009658139336</v>
+        <v>0.2310007341459076</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1336013359696477</v>
+        <v>0.1322190543828351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1041518843649844</v>
+        <v>0.1013396846109084</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1985832920854755</v>
+        <v>0.2005865358180989</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2818998671439464</v>
+        <v>0.2808892717460482</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1723988042348538</v>
+        <v>0.1722918773571225</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1667949212967167</v>
+        <v>0.1676206077100374</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1752506991152886</v>
+        <v>0.1737485984568126</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2499376854683633</v>
+        <v>0.2497496310651292</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.145610624035883</v>
+        <v>0.1432185426419504</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1363962187646399</v>
+        <v>0.1353920841747746</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.004160822795040082</v>
+        <v>0.004116555055608923</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01793202268680751</v>
+        <v>0.01749383833843505</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01730340897437968</v>
+        <v>0.01993186658066911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.006723377484389474</v>
+        <v>0.007833957571475553</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1962271807037246</v>
+        <v>0.1996752669954685</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2000829050670801</v>
+        <v>0.1974231395086223</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1269833008084635</v>
+        <v>0.1296118404223052</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1487463174508395</v>
+        <v>0.1483772645627597</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1617266653989699</v>
+        <v>0.1627708336890934</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1673665555997598</v>
+        <v>0.1674857363414292</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1066257492147978</v>
+        <v>0.107619507746296</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1216492734843466</v>
+        <v>0.1191505906673664</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03613022240502385</v>
+        <v>0.03914463646464485</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07419315649939977</v>
+        <v>0.07020111309559565</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07246905860912875</v>
+        <v>0.07406291366380564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06659649070955216</v>
+        <v>0.0764005611635992</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2517518380304936</v>
+        <v>0.2516648233176131</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2555085828003104</v>
+        <v>0.2584009903099011</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1807731738448724</v>
+        <v>0.1817368199464089</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.192487860445537</v>
+        <v>0.1910288446264767</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2073744212449091</v>
+        <v>0.2096818024351014</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2151066704921603</v>
+        <v>0.2164473211062205</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1483908081115535</v>
+        <v>0.1505017197034026</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.158353683089447</v>
+        <v>0.1572714742332846</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1226693235808373</v>
+        <v>0.1225521913645498</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1359981666684651</v>
+        <v>0.1368048439998591</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09550422354430428</v>
+        <v>0.09591073028912274</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09293413795275723</v>
+        <v>0.09491218127593466</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1480462500713008</v>
+        <v>0.1476423275657816</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1673653369428502</v>
+        <v>0.1684722656542617</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1040265419428126</v>
+        <v>0.1045162524415114</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1122075401701806</v>
+        <v>0.1124543367553033</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1397114093007631</v>
+        <v>0.1395768322675197</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1565668209745527</v>
+        <v>0.1578702816292433</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1035324523923427</v>
+        <v>0.1023166963554398</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1063684689108729</v>
+        <v>0.1065398274876459</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1507967207068261</v>
+        <v>0.1505613700541557</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1643461391703628</v>
+        <v>0.1655151360068921</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1202751422692271</v>
+        <v>0.1201981610594265</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1140359814527559</v>
+        <v>0.1155247309031519</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1758608652371459</v>
+        <v>0.1751954973334364</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1951714836273747</v>
+        <v>0.1959380165791301</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1293852456726513</v>
+        <v>0.1293052038093514</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.129399482667481</v>
+        <v>0.1299860748099446</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1595594553874391</v>
+        <v>0.1601446194092748</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1763120722938073</v>
+        <v>0.1774115650402955</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1205352699165603</v>
+        <v>0.120920291603091</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1194658778791192</v>
+        <v>0.1197933802279792</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40164</v>
+        <v>40691</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32945</v>
+        <v>34265</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19201</v>
+        <v>18459</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35416</v>
+        <v>34070</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24765</v>
+        <v>25051</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14432</v>
+        <v>14517</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19787</v>
+        <v>18485</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26524</v>
+        <v>25763</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>71321</v>
+        <v>71673</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>52667</v>
+        <v>52752</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>43619</v>
+        <v>43083</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>65614</v>
+        <v>67064</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>67056</v>
+        <v>68283</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>60527</v>
+        <v>62727</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41777</v>
+        <v>41044</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58284</v>
+        <v>59720</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46703</v>
+        <v>47966</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34412</v>
+        <v>35340</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43820</v>
+        <v>42209</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>45376</v>
+        <v>44320</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>106613</v>
+        <v>108642</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>85134</v>
+        <v>86984</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>75823</v>
+        <v>73410</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>94914</v>
+        <v>98358</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28118</v>
+        <v>28107</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>47183</v>
+        <v>48023</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21713</v>
+        <v>22639</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>43040</v>
+        <v>43384</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16518</v>
+        <v>16355</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17041</v>
+        <v>17484</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13884</v>
+        <v>13880</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21740</v>
+        <v>20993</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>49887</v>
+        <v>48974</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>70603</v>
+        <v>69120</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>42073</v>
+        <v>41465</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>68759</v>
+        <v>68264</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51039</v>
+        <v>51206</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>80023</v>
+        <v>79393</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45247</v>
+        <v>45923</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>68880</v>
+        <v>69351</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>35453</v>
+        <v>36813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37235</v>
+        <v>37748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>33167</v>
+        <v>32795</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>39833</v>
+        <v>38647</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>80209</v>
+        <v>78544</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>110741</v>
+        <v>107805</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>72155</v>
+        <v>72095</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>101451</v>
+        <v>100943</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41992</v>
+        <v>39939</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>64148</v>
+        <v>66863</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>49686</v>
+        <v>47680</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>43794</v>
+        <v>43630</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7729</v>
+        <v>7928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42528</v>
+        <v>41898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13909</v>
+        <v>13526</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22612</v>
+        <v>22256</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>53059</v>
+        <v>54078</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>116361</v>
+        <v>114748</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>70224</v>
+        <v>68191</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>71808</v>
+        <v>70598</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>70210</v>
+        <v>68557</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>100343</v>
+        <v>101449</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>77963</v>
+        <v>77536</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>70913</v>
+        <v>70587</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21244</v>
+        <v>22241</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>70585</v>
+        <v>69031</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>32709</v>
+        <v>32080</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>38979</v>
+        <v>38774</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>84250</v>
+        <v>84484</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>158874</v>
+        <v>159265</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>105190</v>
+        <v>103606</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>103654</v>
+        <v>101964</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>133140</v>
+        <v>134928</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>138837</v>
+        <v>138738</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>88926</v>
+        <v>89986</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>120580</v>
+        <v>122336</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>66790</v>
+        <v>66490</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>77033</v>
+        <v>75623</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>40710</v>
+        <v>40088</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>65849</v>
+        <v>65096</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>212564</v>
+        <v>211680</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>225891</v>
+        <v>224925</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>138114</v>
+        <v>134051</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>196572</v>
+        <v>195606</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>177839</v>
+        <v>180479</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>188093</v>
+        <v>185110</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>126872</v>
+        <v>127247</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>167702</v>
+        <v>166986</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>98859</v>
+        <v>100551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>114459</v>
+        <v>114329</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68905</v>
+        <v>70171</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>92208</v>
+        <v>91432</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>267662</v>
+        <v>268141</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>285327</v>
+        <v>285918</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>185389</v>
+        <v>185021</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>245906</v>
+        <v>246193</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18783</v>
+        <v>18353</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>60331</v>
+        <v>62381</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>31640</v>
+        <v>31753</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29880</v>
+        <v>30203</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>58902</v>
+        <v>58996</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>139937</v>
+        <v>143897</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>61613</v>
+        <v>60290</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>101386</v>
+        <v>102323</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>84378</v>
+        <v>83636</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>211545</v>
+        <v>212350</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>101671</v>
+        <v>102250</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>138372</v>
+        <v>138876</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>39911</v>
+        <v>38869</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>92843</v>
+        <v>93165</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>56803</v>
+        <v>56215</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>53102</v>
+        <v>51668</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>90570</v>
+        <v>91484</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>188823</v>
+        <v>188146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>96109</v>
+        <v>96049</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>132353</v>
+        <v>133008</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>123378</v>
+        <v>122320</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>268217</v>
+        <v>268015</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>143084</v>
+        <v>140734</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>177772</v>
+        <v>176464</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3967</v>
+        <v>3870</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4180</v>
+        <v>4815</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1518</v>
+        <v>1769</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>185556</v>
+        <v>188816</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>185154</v>
+        <v>182692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>104798</v>
+        <v>106967</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>121785</v>
+        <v>121483</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>187255</v>
+        <v>188464</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>191900</v>
+        <v>192037</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>113752</v>
+        <v>114812</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>127066</v>
+        <v>124456</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7668</v>
+        <v>8308</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16412</v>
+        <v>15529</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17505</v>
+        <v>17890</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15037</v>
+        <v>17250</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>238061</v>
+        <v>237978</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>236444</v>
+        <v>239120</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>149190</v>
+        <v>149985</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>157598</v>
+        <v>156403</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>240108</v>
+        <v>242780</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>246639</v>
+        <v>248176</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>158309</v>
+        <v>160561</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>165405</v>
+        <v>164275</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>300342</v>
+        <v>300055</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>395999</v>
+        <v>398348</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>253631</v>
+        <v>254711</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>308151</v>
+        <v>314709</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>405627</v>
+        <v>404520</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>525905</v>
+        <v>529383</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>297060</v>
+        <v>298458</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>396442</v>
+        <v>397314</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>724858</v>
+        <v>724160</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>947864</v>
+        <v>955756</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>570600</v>
+        <v>563900</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>728508</v>
+        <v>729682</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>369209</v>
+        <v>368633</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>478543</v>
+        <v>481947</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>319415</v>
+        <v>319211</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>378120</v>
+        <v>383056</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>481835</v>
+        <v>480012</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>613279</v>
+        <v>615688</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>369474</v>
+        <v>369246</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>457184</v>
+        <v>459256</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>827835</v>
+        <v>830871</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1067403</v>
+        <v>1074060</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>664308</v>
+        <v>666430</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>818211</v>
+        <v>820454</v>
       </c>
     </row>
     <row r="32">
